--- a/Analytics/D1/ShirtsXbookings_d1.xlsx
+++ b/Analytics/D1/ShirtsXbookings_d1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Mainz</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -136,7 +136,7 @@
     <t>SUM("TShirtsXbookings")</t>
   </si>
   <si>
-    <t>SUM("TShirtsXbookings") / 34</t>
+    <t>SUM("TShirtsXbookings") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>59650.0</v>
+        <v>29785.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>58550.0</v>
+        <v>22415.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>57928.5</v>
+        <v>21540.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>56660.0</v>
+        <v>19425.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>52585.0</v>
+        <v>17735.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>47440.0</v>
+        <v>12220.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>45130.0</v>
+        <v>11990.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>41075.0</v>
+        <v>10775.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>39625.0</v>
+        <v>10400.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>39150.0</v>
+        <v>9880.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>37300.0</v>
+        <v>8605.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>37020.0</v>
+        <v>8240.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>36900.0</v>
+        <v>7035.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>36895.0</v>
+        <v>6610.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>35920.0</v>
+        <v>5540.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>34620.0</v>
+        <v>4150.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>31435.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>30910.0</v>
+        <v>2720.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>63675.0</v>
+        <v>23640.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>60505.0</v>
+        <v>22840.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>56850.0</v>
+        <v>22015.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>54150.0</v>
+        <v>16435.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>51970.0</v>
+        <v>12080.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>47690.0</v>
+        <v>12000.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>46405.0</v>
+        <v>11900.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>46035.0</v>
+        <v>11505.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>45085.0</v>
+        <v>11265.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>40285.0</v>
+        <v>10015.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>37565.0</v>
+        <v>10010.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>37130.0</v>
+        <v>9350.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>36588.5</v>
+        <v>7870.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>34695.0</v>
+        <v>7590.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>32550.0</v>
+        <v>6940.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>31810.0</v>
+        <v>6690.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>29940.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>25865.0</v>
+        <v>4870.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>118433.5</v>
+        <v>36725.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3483.3382352941176</v>
+        <v>4080.5555555555557</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>103065.0</v>
+        <v>34170.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3031.323529411765</v>
+        <v>3796.6666666666665</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>101590.0</v>
+        <v>34040.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2987.9411764705883</v>
+        <v>3782.222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>99935.0</v>
+        <v>33440.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2939.264705882353</v>
+        <v>3715.5555555555557</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>99595.0</v>
+        <v>31445.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2929.264705882353</v>
+        <v>3493.8888888888887</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>98620.0</v>
+        <v>28265.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2900.5882352941176</v>
+        <v>3140.5555555555557</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>95680.0</v>
+        <v>27555.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2814.1176470588234</v>
+        <v>3061.6666666666665</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>93745.0</v>
+        <v>27015.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.205882352941</v>
+        <v>3001.6666666666665</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>91595.0</v>
+        <v>23495.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2693.970588235294</v>
+        <v>2610.5555555555557</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>78600.0</v>
+        <v>19505.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2311.764705882353</v>
+        <v>2167.222222222222</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>76940.0</v>
+        <v>18910.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2262.9411764705883</v>
+        <v>2101.1111111111113</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>76520.0</v>
+        <v>17750.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2250.5882352941176</v>
+        <v>1972.2222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>74465.0</v>
+        <v>16625.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2190.1470588235293</v>
+        <v>1847.2222222222222</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>73845.0</v>
+        <v>16385.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2171.9117647058824</v>
+        <v>1820.5555555555557</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>73625.0</v>
+        <v>16150.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2165.4411764705883</v>
+        <v>1794.4444444444443</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>73608.5</v>
+        <v>15880.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2164.955882352941</v>
+        <v>1764.4444444444443</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>67240.0</v>
+        <v>15645.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1977.6470588235295</v>
+        <v>1738.3333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>60485.0</v>
+        <v>12730.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1778.9705882352941</v>
+        <v>1414.4444444444443</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/ShirtsXbookings_d1.xlsx
+++ b/Analytics/D1/ShirtsXbookings_d1.xlsx
@@ -79,22 +79,28 @@
     <t>Augsburg</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Stuttgart</t>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
   </si>
   <si>
     <t>Leverkusen</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
     <t>Mgladbach</t>
   </si>
   <si>
-    <t>Dortmund</t>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Mainz</t>
   </si>
   <si>
     <t>Union Berlin</t>
@@ -103,10 +109,7 @@
     <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Mainz</t>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Ein Frankfurt</t>
@@ -115,19 +118,16 @@
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>29785.0</v>
+        <v>31675.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>22415.0</v>
+        <v>30630.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>21540.0</v>
+        <v>26925.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>19425.0</v>
+        <v>26105.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>17735.0</v>
+        <v>23910.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>12220.0</v>
+        <v>21145.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>11990.0</v>
+        <v>18240.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>10775.0</v>
+        <v>17650.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>10400.0</v>
+        <v>15570.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>9880.0</v>
+        <v>15505.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>8605.0</v>
+        <v>14370.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>8240.0</v>
+        <v>13210.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>7035.0</v>
+        <v>11760.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>6610.0</v>
+        <v>11645.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5540.0</v>
+        <v>9970.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>4150.0</v>
+        <v>8240.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>3800.0</v>
+        <v>7100.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>2720.0</v>
+        <v>6515.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>23640.0</v>
+        <v>31930.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>22840.0</v>
+        <v>31150.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>22015.0</v>
+        <v>30795.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>16435.0</v>
+        <v>24515.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>12080.0</v>
+        <v>18700.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>12000.0</v>
+        <v>18360.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>11900.0</v>
+        <v>17105.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>11505.0</v>
+        <v>16590.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>11265.0</v>
+        <v>15120.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>10015.0</v>
+        <v>14570.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>10010.0</v>
+        <v>14405.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>9350.0</v>
+        <v>13500.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>7870.0</v>
+        <v>11980.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>7590.0</v>
+        <v>11890.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>6940.0</v>
+        <v>10690.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>6690.0</v>
+        <v>10595.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>5850.0</v>
+        <v>10160.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>4870.0</v>
+        <v>8110.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>36725.0</v>
+        <v>56900.0</v>
       </c>
       <c r="D2" t="n">
-        <v>4080.5555555555557</v>
+        <v>6322.222222222223</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>34170.0</v>
+        <v>46720.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3796.6666666666665</v>
+        <v>5191.111111111111</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>34040.0</v>
+        <v>46300.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3782.222222222222</v>
+        <v>5144.444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>33440.0</v>
+        <v>45750.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3715.5555555555557</v>
+        <v>5083.333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>31445.0</v>
+        <v>42610.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3493.8888888888887</v>
+        <v>4734.444444444444</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>28265.0</v>
+        <v>42270.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3140.5555555555557</v>
+        <v>4696.666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>27555.0</v>
+        <v>37615.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3061.6666666666665</v>
+        <v>4179.444444444444</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>27015.0</v>
+        <v>33035.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3001.6666666666665</v>
+        <v>3670.5555555555557</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>23495.0</v>
+        <v>32755.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2610.5555555555557</v>
+        <v>3639.4444444444443</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>19505.0</v>
+        <v>32220.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2167.222222222222</v>
+        <v>3580.0</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>18910.0</v>
+        <v>28865.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2101.1111111111113</v>
+        <v>3207.222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>17750.0</v>
+        <v>28235.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1972.2222222222222</v>
+        <v>3137.222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>16625.0</v>
+        <v>26710.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1847.2222222222222</v>
+        <v>2967.777777777778</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>16385.0</v>
+        <v>26350.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1820.5555555555557</v>
+        <v>2927.777777777778</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>16150.0</v>
+        <v>25665.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1794.4444444444443</v>
+        <v>2851.6666666666665</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>15880.0</v>
+        <v>24875.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1764.4444444444443</v>
+        <v>2763.8888888888887</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>15645.0</v>
+        <v>21950.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1738.3333333333333</v>
+        <v>2438.8888888888887</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>12730.0</v>
+        <v>21505.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1414.4444444444443</v>
+        <v>2389.4444444444443</v>
       </c>
     </row>
   </sheetData>
